--- a/data/DIEM.xlsx
+++ b/data/DIEM.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vanna_ai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13108C5C-6118-4789-891B-F79DC48EE270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0E16F3-FDD0-4BBA-8B53-A9ECF4641BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E88FFB68-7B20-4E0B-8160-F034DAA35615}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$707</definedName>
+  </definedNames>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6248,9 +6251,6 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
     <t>Room</t>
   </si>
   <si>
@@ -6273,6 +6273,9 @@
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
   </si>
 </sst>
 </file>
@@ -6723,7 +6726,7 @@
   <dimension ref="A1:L707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6736,31 +6739,31 @@
         <v>2069</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2070</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2071</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2072</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2073</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>2074</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>2076</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>2077</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>2078</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>1</v>
@@ -33579,6 +33582,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L707" xr:uid="{636DBEE8-8E5D-43A4-B044-C5A133EF53C6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>